--- a/src/main/resources/Data.xlsx
+++ b/src/main/resources/Data.xlsx
@@ -28,25 +28,25 @@
     <t>$USER_NAME</t>
   </si>
   <si>
-    <t>$FIELD1</t>
+    <t>$PASSWORD</t>
   </si>
   <si>
-    <t>$FIELD2</t>
+    <t>$CONT_PIC_ONE</t>
   </si>
   <si>
-    <t>$FIELD3</t>
+    <t>messemuenchen@163.com</t>
   </si>
   <si>
-    <t>784047712@qq.com</t>
+    <t>【慕尼黑上海电子生产设备展展商通知】即刻登录展商中心，邀请您的重要贵宾！</t>
   </si>
   <si>
-    <t>2021年01月29日通知提醒(version:test)</t>
+    <t>XINGYU07</t>
   </si>
   <si>
-    <t>顾郁</t>
+    <t>XINGYU077</t>
   </si>
   <si>
-    <t>客户端自动发送</t>
+    <t>星宇电子（宁波）有限公司.jpg</t>
   </si>
 </sst>
 </file>
@@ -56,8 +56,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -69,6 +69,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -79,6 +86,22 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -90,47 +113,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,22 +183,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,31 +205,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,19 +227,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,157 +389,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,30 +412,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -450,11 +426,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -470,6 +459,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,16 +499,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,156 +517,162 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -988,24 +994,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6"/>
   <cols>
-    <col min="1" max="2" width="45.9732142857143" customWidth="1"/>
-    <col min="3" max="3" width="39.4285714285714" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.8839285714286" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.8214285714286" style="1" customWidth="1"/>
-    <col min="6" max="6" width="36.0089285714286" style="1" customWidth="1"/>
-    <col min="7" max="7" width="33.1785714285714" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.14285714285714" style="1"/>
+    <col min="1" max="1" width="21.25" customWidth="1"/>
+    <col min="2" max="2" width="48.125" customWidth="1"/>
+    <col min="3" max="3" width="40.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" customWidth="1"/>
+    <col min="6" max="6" width="34.2232142857143" style="1" customWidth="1"/>
+    <col min="7" max="7" width="37.7857142857143" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1015,54 +1022,322 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" ht="23" customHeight="1" spans="1:9">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:7">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1">
-        <v>20210128</v>
-      </c>
-      <c r="F2" s="1">
-        <v>20210128</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1"/>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="3"/>
+      <c r="C21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="3"/>
+      <c r="C22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="3"/>
+      <c r="C23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="3"/>
+      <c r="C24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="3"/>
+      <c r="C25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="3"/>
+      <c r="C26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="3"/>
+      <c r="C27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="3"/>
+      <c r="C28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="3"/>
+      <c r="C29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="3"/>
+      <c r="C30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="3"/>
+      <c r="C31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="3"/>
+      <c r="C32" s="2"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="3"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="784047712@qq.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="messemuenchen@163.com" tooltip="mailto:messemuenchen@163.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/Data.xlsx
+++ b/src/main/resources/Data.xlsx
@@ -34,7 +34,7 @@
     <t>$CONT_PIC_ONE</t>
   </si>
   <si>
-    <t>messemuenchen@163.com</t>
+    <t>15800481503@163.com</t>
   </si>
   <si>
     <t>【慕尼黑上海电子生产设备展展商通知】即刻登录展商中心，邀请您的重要贵宾！</t>
@@ -54,10 +54,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -86,6 +86,14 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -97,11 +105,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -113,31 +136,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,32 +168,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -182,31 +190,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,19 +233,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,43 +371,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,103 +401,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,22 +428,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,26 +498,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,139 +517,139 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -997,7 +997,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6"/>
@@ -1036,7 +1036,7 @@
       <c r="I1" s="2"/>
     </row>
     <row r="2" ht="23" customHeight="1" spans="1:9">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1057,12 +1057,24 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -1071,7 +1083,6 @@
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="1"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -1082,7 +1093,6 @@
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="1"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1093,7 +1103,6 @@
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="1"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1104,7 +1113,6 @@
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="1"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1115,7 +1123,6 @@
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="1"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1126,7 +1133,6 @@
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="1"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1137,7 +1143,6 @@
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="1"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1148,7 +1153,6 @@
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="1"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1159,7 +1163,6 @@
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="1"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -1170,7 +1173,6 @@
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="1"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1181,7 +1183,6 @@
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="1"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1192,7 +1193,6 @@
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="1"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1203,7 +1203,6 @@
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="1"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1214,7 +1213,6 @@
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="1"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1225,7 +1223,6 @@
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="1"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1236,7 +1233,6 @@
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="1"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1247,7 +1243,6 @@
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="1"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -1333,9 +1328,6 @@
       <c r="B38" s="3"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="messemuenchen@163.com" tooltip="mailto:messemuenchen@163.com"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
